--- a/assets/model/modele_export_clients.xlsx
+++ b/assets/model/modele_export_clients.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Electron\my-devis-carreleur\assets\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD83D0B-DD3D-4D3B-AB2F-96686A07D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF734284-D68E-4F74-8A97-709C0F64F373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{46016C71-5B08-4C98-8D27-5F6FE33A5F8B}"/>
+    <workbookView xWindow="3705" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{46016C71-5B08-4C98-8D27-5F6FE33A5F8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="prestation" sheetId="1" r:id="rId1"/>
+    <sheet name="clients" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,13 +47,13 @@
     <t>TELEPHONE</t>
   </si>
   <si>
-    <t>NOMBRE  CLIENTS</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
     <t>ADRESSE</t>
+  </si>
+  <si>
+    <t>NOMBRE  CLIENTS :</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,15 +514,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>

--- a/assets/model/modele_export_clients.xlsx
+++ b/assets/model/modele_export_clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Electron\my-devis-carreleur\assets\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF734284-D68E-4F74-8A97-709C0F64F373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982A752-41AE-42E5-8E6E-EA71D81364B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{46016C71-5B08-4C98-8D27-5F6FE33A5F8B}"/>
+    <workbookView xWindow="4050" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{46016C71-5B08-4C98-8D27-5F6FE33A5F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="clients" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>LISTE CLIENTS</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>NOMBRE  CLIENTS :</t>
+  </si>
+  <si>
+    <t>CODE</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,54 +490,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F4F77-AECD-4DAA-BC25-D51DE6896F9F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
